--- a/backend/public/DTS_CNSS_FORMAT2_2.xlsx
+++ b/backend/public/DTS_CNSS_FORMAT2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joel\sega\backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8614486-0343-46FA-AA14-4D038A648B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D0C659-161F-4FC0-B708-C19FE63FC618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Matricule employeur</t>
   </si>
@@ -442,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -703,12 +703,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -805,6 +818,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,6 +975,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,12 +1716,12 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1696,10 +1744,10 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
@@ -1718,20 +1766,20 @@
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1740,20 +1788,20 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1762,10 +1810,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -1780,10 +1828,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -1806,10 +1854,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -1824,10 +1872,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -1852,10 +1900,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="69"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
@@ -1878,12 +1926,12 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1892,12 +1940,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -1918,29 +1966,29 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="N21" s="2"/>
@@ -1973,20 +2021,20 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="87" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
       <c r="L23" s="2"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20"/>
@@ -2017,25 +2065,25 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="93" t="s">
+      <c r="G25" s="62"/>
+      <c r="H25" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="93" t="s">
+      <c r="I25" s="94"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="85"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="84" t="s">
+      <c r="L25" s="94"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="O25" s="85"/>
-      <c r="P25" s="86"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
     </row>
     <row r="26" spans="1:16" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
@@ -2088,25 +2136,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="57" t="s">
         <v>42</v>
       </c>
       <c r="H27" s="32" t="s">
@@ -2115,7 +2163,7 @@
       <c r="I27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="104" t="s">
         <v>56</v>
       </c>
       <c r="K27" s="32" t="s">
@@ -2124,7 +2172,7 @@
       <c r="L27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="105" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="32" t="s">
@@ -2133,124 +2181,282 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="105" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
+    <row r="28" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
+      <c r="B28" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="56"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="56"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B35" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D35" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E35" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="34" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="34" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="34" t="s">
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O35" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B36" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D36" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E36" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="34" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="34" t="s">
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="34" t="s">
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O36" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="39" t="s">
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="37" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="38"/>
+      <c r="P37" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="35">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="M13:P17"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
@@ -2258,19 +2464,6 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="M13:P17"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="M12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
